--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398212.927005946</v>
+        <v>325556.3918026248</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037513.100416115</v>
+        <v>3842442.348868396</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12139730.25673906</v>
+        <v>10498891.9951863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7776639.070444661</v>
+        <v>8698202.045674901</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.86547882798917</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.58387696184059</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.52847303402372</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>84.41950480310371</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>136.9142341349673</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>70.02631374670447</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>255.0853779233023</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>255.0853779233023</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.0853779233023</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>31.68260024541483</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815132</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>49.37995006892124</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>154.7864033825332</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>224.6792008748446</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>163.7767477587485</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>255.0853779233023</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>255.0853779233023</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>255.0853779233023</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.5640600348274</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.1326519351085</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>255.0853779233023</v>
+        <v>270.9353637277562</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>217.3373517995072</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>113.1153427903392</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664363</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.48074024064245</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>176.0829350475357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>201.3054287459128</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>68.99278818325541</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>49.94675160484213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.216180791261342</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>210.8148107334151</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>45.37671961017475</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.0208155887377</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>87.08295509973661</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>282.8488930041781</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>307.0186697888086</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.7648982273099</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>189.4127584730247</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>133.2297865137654</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>95.17027826506144</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>128.593312149442</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4361410009234</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6768538171132</v>
+        <v>21.6334881511696</v>
       </c>
     </row>
     <row r="33">
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>225.5650375952951</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.5670282979685</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>263.7394182836358</v>
+        <v>244.2009443271647</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>79.39341862721993</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>198.5670282979685</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>324.5129491964105</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>115.0603151072892</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938903</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>35.74512284626974</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>104.1958917037672</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.52032465449962</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>109.9834509844199</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>143.2516641532715</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S42" t="n">
         <v>147.9721212459916</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>206.3137109670453</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>79.28631524536129</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>2.905978890209819</v>
+        <v>307.1448334205449</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269626</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705015</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>134.3646350838588</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>192.0665623188214</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.8120836014181</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>9.953401503585379</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>108.260178376266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>68.2764642733967</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>28.29275017052741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29275017052741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>28.29275017052741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>28.29275017052741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>42.35474834916943</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>3.166710156947247</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>3.166710156947247</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>135.1878417126385</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>135.1878417126385</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>135.1878417126385</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.1878417126385</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.13413836268582</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C6" t="n">
-        <v>83.13413836268582</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D6" t="n">
-        <v>83.13413836268582</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E6" t="n">
-        <v>43.15042425981653</v>
+        <v>341.4439740098271</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>194.9094160367121</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>56.17859061932759</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>56.17859061932759</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>120.7308247336138</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>123.1178524655551</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>123.1178524655551</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>123.1178524655551</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>123.1178524655551</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.1178524655551</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.9507376187037</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C8" t="n">
-        <v>131.9507376187037</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D8" t="n">
-        <v>131.9507376187037</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E8" t="n">
-        <v>131.9507376187037</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F8" t="n">
-        <v>87.37278572049297</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G8" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.9507376187037</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8378388614781</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.40683023386418</v>
+        <v>1404.860064887974</v>
       </c>
       <c r="C11" t="n">
-        <v>20.40683023386418</v>
+        <v>1404.860064887974</v>
       </c>
       <c r="D11" t="n">
-        <v>20.40683023386418</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E11" t="n">
-        <v>20.40683023386418</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F11" t="n">
-        <v>20.40683023386418</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>41.64108022724745</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>124.2042348018398</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L11" t="n">
-        <v>263.5328906430929</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M11" t="n">
-        <v>450.2323034685004</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N11" t="n">
-        <v>644.5665163604826</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O11" t="n">
-        <v>814.7355416774421</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P11" t="n">
-        <v>925.4698669269686</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q11" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R11" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>864.1264741900372</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>793.3928239408408</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U11" t="n">
-        <v>793.3928239408408</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V11" t="n">
-        <v>793.3928239408408</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W11" t="n">
-        <v>535.7308260385153</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X11" t="n">
-        <v>278.0688281361897</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.40683023386418</v>
+        <v>1404.860064887974</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>791.378111889863</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C12" t="n">
-        <v>759.375485379343</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D12" t="n">
-        <v>610.4410757180917</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E12" t="n">
-        <v>451.2036207126362</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F12" t="n">
-        <v>304.6690627395212</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
-        <v>167.2276650987431</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H12" t="n">
-        <v>66.31168724354769</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K12" t="n">
-        <v>88.01464989722119</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L12" t="n">
-        <v>225.2442479129151</v>
+        <v>591.7266525668458</v>
       </c>
       <c r="M12" t="n">
-        <v>477.7787720569844</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
-        <v>676.4355137096491</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>835.9478263784097</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>944.6374539057085</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R12" t="n">
-        <v>999.2296120953959</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S12" t="n">
-        <v>999.2296120953959</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T12" t="n">
-        <v>999.2296120953959</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>999.2296120953959</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V12" t="n">
-        <v>999.2296120953959</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>999.2296120953959</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>791.378111889863</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
-        <v>791.378111889863</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682.4232656650172</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C13" t="n">
-        <v>682.4232656650172</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D13" t="n">
-        <v>682.4232656650172</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E13" t="n">
-        <v>632.5445282216624</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
-        <v>485.654580723752</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>317.0477357191354</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
-        <v>162.7930926189005</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
-        <v>38.28141799322681</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J13" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K13" t="n">
-        <v>121.454759829474</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L13" t="n">
-        <v>306.2877547302924</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M13" t="n">
-        <v>511.5573554495303</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N13" t="n">
-        <v>717.3807202856347</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O13" t="n">
-        <v>891.4756156742337</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P13" t="n">
-        <v>1016.923192272849</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>889.8635504126119</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>682.4232656650172</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>682.4232656650172</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U13" t="n">
-        <v>682.4232656650172</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V13" t="n">
-        <v>682.4232656650172</v>
+        <v>670.6565019047234</v>
       </c>
       <c r="W13" t="n">
-        <v>682.4232656650172</v>
+        <v>381.2393318677629</v>
       </c>
       <c r="X13" t="n">
-        <v>682.4232656650172</v>
+        <v>381.2393318677629</v>
       </c>
       <c r="Y13" t="n">
-        <v>682.4232656650172</v>
+        <v>381.2393318677629</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>505.017515888558</v>
+        <v>1702.091767437537</v>
       </c>
       <c r="C14" t="n">
-        <v>278.0688281361897</v>
+        <v>1333.129250497125</v>
       </c>
       <c r="D14" t="n">
-        <v>278.0688281361897</v>
+        <v>1167.698192154955</v>
       </c>
       <c r="E14" t="n">
-        <v>278.0688281361897</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F14" t="n">
-        <v>278.0688281361897</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G14" t="n">
-        <v>278.0688281361897</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H14" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I14" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J14" t="n">
-        <v>41.64108022724748</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K14" t="n">
-        <v>124.2042348018398</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L14" t="n">
-        <v>263.532890643093</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M14" t="n">
-        <v>450.2323034685007</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N14" t="n">
-        <v>644.5665163604831</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O14" t="n">
-        <v>814.7355416774426</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P14" t="n">
-        <v>925.4698669269691</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q14" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R14" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>1020.341511693209</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>1020.341511693209</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U14" t="n">
-        <v>1020.341511693209</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V14" t="n">
-        <v>762.6795137908836</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W14" t="n">
-        <v>505.017515888558</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X14" t="n">
-        <v>505.017515888558</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y14" t="n">
-        <v>505.017515888558</v>
+        <v>2088.691607501659</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>330.2050687112193</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C15" t="n">
-        <v>330.2050687112193</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D15" t="n">
-        <v>330.2050687112193</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E15" t="n">
-        <v>304.3827858477573</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F15" t="n">
-        <v>157.8482278746422</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>20.40683023386418</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
-        <v>20.40683023386418</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>20.40683023386418</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>88.01464989722122</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L15" t="n">
-        <v>225.2442479129152</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M15" t="n">
-        <v>476.8681061511035</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N15" t="n">
-        <v>729.4026302951727</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O15" t="n">
-        <v>888.9149429639333</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P15" t="n">
-        <v>997.6045704912322</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q15" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>1020.341511693209</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S15" t="n">
-        <v>1020.341511693209</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T15" t="n">
-        <v>1020.341511693209</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>792.2027242043748</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V15" t="n">
-        <v>792.2027242043748</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>537.9653674761732</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>537.9653674761732</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
-        <v>330.2050687112193</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.2626936544103</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C16" t="n">
-        <v>465.3265107265034</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D16" t="n">
-        <v>315.2098713141677</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E16" t="n">
-        <v>167.2967777317745</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K16" t="n">
-        <v>121.454759829474</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L16" t="n">
-        <v>306.2877547302924</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M16" t="n">
-        <v>511.5573554495303</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N16" t="n">
-        <v>717.3807202856347</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O16" t="n">
-        <v>891.4756156742335</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P16" t="n">
-        <v>1016.923192272849</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>1020.341511693209</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T16" t="n">
-        <v>1020.341511693209</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.341511693209</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.341511693209</v>
+        <v>845.195316251363</v>
       </c>
       <c r="W16" t="n">
-        <v>762.6795137908836</v>
+        <v>571.5232316778719</v>
       </c>
       <c r="X16" t="n">
-        <v>762.6795137908836</v>
+        <v>571.5232316778719</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.6795137908836</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2282.277321710528</v>
+        <v>1699.043895928971</v>
       </c>
       <c r="C17" t="n">
-        <v>2062.744643125167</v>
+        <v>1699.043895928971</v>
       </c>
       <c r="D17" t="n">
-        <v>1704.478944518417</v>
+        <v>1699.043895928971</v>
       </c>
       <c r="E17" t="n">
-        <v>1318.690691920173</v>
+        <v>1313.255643330727</v>
       </c>
       <c r="F17" t="n">
-        <v>907.7047871305651</v>
+        <v>902.2697385411195</v>
       </c>
       <c r="G17" t="n">
-        <v>490.6170053669925</v>
+        <v>485.181956777547</v>
       </c>
       <c r="H17" t="n">
-        <v>172.393890139502</v>
+        <v>166.9588415500565</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5518,19 +5518,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>156.4983241075885</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L17" t="n">
-        <v>683.1408478992852</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M17" t="n">
-        <v>1314.858658882597</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N17" t="n">
-        <v>1942.166326942443</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O17" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P17" t="n">
         <v>2600.061856959047</v>
@@ -5545,22 +5545,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W17" t="n">
-        <v>2282.277321710528</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="X17" t="n">
-        <v>2282.277321710528</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2282.277321710528</v>
+        <v>1699.043895928971</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>199.521754404492</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
@@ -5603,13 +5603,13 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M18" t="n">
-        <v>1527.036213178646</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.692954831311</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O18" t="n">
-        <v>2275.128963584034</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
         <v>2612.309035778665</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.57550729897547</v>
+        <v>282.9047460684752</v>
       </c>
       <c r="C19" t="n">
-        <v>70.57550729897547</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D19" t="n">
-        <v>70.57550729897547</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E19" t="n">
-        <v>70.57550729897547</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F19" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U19" t="n">
-        <v>537.8542278890025</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V19" t="n">
-        <v>359.9926773359361</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W19" t="n">
-        <v>70.57550729897547</v>
+        <v>282.9047460684752</v>
       </c>
       <c r="X19" t="n">
-        <v>70.57550729897547</v>
+        <v>282.9047460684752</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.57550729897547</v>
+        <v>282.9047460684752</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2431.707160065579</v>
+        <v>1098.152250314266</v>
       </c>
       <c r="C20" t="n">
-        <v>2062.744643125167</v>
+        <v>729.1897333738539</v>
       </c>
       <c r="D20" t="n">
-        <v>1704.478944518417</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="E20" t="n">
-        <v>1318.690691920173</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="F20" t="n">
-        <v>907.7047871305651</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G20" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5764,10 +5764,10 @@
         <v>1661.933351782553</v>
       </c>
       <c r="N20" t="n">
-        <v>2289.241019842399</v>
+        <v>1856.267564674535</v>
       </c>
       <c r="O20" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P20" t="n">
         <v>2600.061856959047</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V20" t="n">
-        <v>2635.045976980643</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W20" t="n">
-        <v>2635.045976980643</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X20" t="n">
-        <v>2635.045976980643</v>
+        <v>1167.841935347857</v>
       </c>
       <c r="Y20" t="n">
-        <v>2635.045976980643</v>
+        <v>1098.152250314266</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>382.1293238454225</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>886.4908637115411</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M21" t="n">
         <v>1527.036213178646</v>
       </c>
       <c r="N21" t="n">
-        <v>1820.852439770577</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P21" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q21" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R21" t="n">
         <v>2613.934077382829</v>
@@ -5864,19 +5864,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V21" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2004.615382108855</v>
+        <v>390.673451275196</v>
       </c>
       <c r="C22" t="n">
-        <v>1835.679199180948</v>
+        <v>221.7372683472891</v>
       </c>
       <c r="D22" t="n">
-        <v>1685.562559768613</v>
+        <v>221.7372683472891</v>
       </c>
       <c r="E22" t="n">
-        <v>1635.111295521298</v>
+        <v>73.82417476489601</v>
       </c>
       <c r="F22" t="n">
-        <v>1635.111295521298</v>
+        <v>73.82417476489601</v>
       </c>
       <c r="G22" t="n">
-        <v>1635.111295521298</v>
+        <v>73.82417476489601</v>
       </c>
       <c r="H22" t="n">
-        <v>1635.111295521298</v>
+        <v>73.82417476489601</v>
       </c>
       <c r="I22" t="n">
-        <v>1635.111295521298</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K22" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L22" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M22" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N22" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O22" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P22" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>2635.045976980643</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U22" t="n">
-        <v>2635.045976980643</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V22" t="n">
-        <v>2635.045976980643</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W22" t="n">
-        <v>2635.045976980643</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X22" t="n">
-        <v>2407.056426082625</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="Y22" t="n">
-        <v>2186.263846939095</v>
+        <v>572.3219161054358</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1515.240032077838</v>
+        <v>1540.37799940018</v>
       </c>
       <c r="C23" t="n">
-        <v>1146.277515137426</v>
+        <v>1540.37799940018</v>
       </c>
       <c r="D23" t="n">
-        <v>788.0118165306759</v>
+        <v>1182.11230079343</v>
       </c>
       <c r="E23" t="n">
-        <v>788.0118165306759</v>
+        <v>796.3240481951855</v>
       </c>
       <c r="F23" t="n">
-        <v>788.0118165306759</v>
+        <v>385.3381434055779</v>
       </c>
       <c r="G23" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I23" t="n">
         <v>52.70091953961285</v>
@@ -5992,19 +5992,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K23" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L23" t="n">
-        <v>709.3115823537878</v>
+        <v>797.5335819773815</v>
       </c>
       <c r="M23" t="n">
-        <v>1341.029393337099</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N23" t="n">
-        <v>1968.337061396946</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O23" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P23" t="n">
         <v>2600.061856959047</v>
@@ -6022,19 +6022,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U23" t="n">
-        <v>2589.210906667335</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V23" t="n">
-        <v>2258.148019323764</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W23" t="n">
-        <v>1905.37936405365</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X23" t="n">
-        <v>1905.37936405365</v>
+        <v>1930.517331375992</v>
       </c>
       <c r="Y23" t="n">
-        <v>1515.240032077838</v>
+        <v>1540.37799940018</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D24" t="n">
         <v>642.7351650238404</v>
@@ -6071,22 +6071,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>295.3416275592179</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L24" t="n">
-        <v>799.7031674253365</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M24" t="n">
-        <v>1440.248516892441</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N24" t="n">
-        <v>1638.905258545106</v>
+        <v>1463.872370188858</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6107,10 +6107,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.337940986287</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>316.7966551308319</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C25" t="n">
-        <v>316.7966551308319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>316.7966551308319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
-        <v>168.8835615484388</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
         <v>52.70091953961285</v>
@@ -6183,16 +6183,16 @@
         <v>827.0064043113226</v>
       </c>
       <c r="V25" t="n">
-        <v>827.0064043113226</v>
+        <v>739.0438234024978</v>
       </c>
       <c r="W25" t="n">
-        <v>537.5892342743621</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="X25" t="n">
-        <v>537.5892342743621</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y25" t="n">
-        <v>316.7966551308319</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1132.072391409515</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C26" t="n">
-        <v>1132.072391409515</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D26" t="n">
-        <v>773.8066928027645</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E26" t="n">
-        <v>773.8066928027645</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F26" t="n">
-        <v>362.8207880131569</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K26" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L26" t="n">
-        <v>683.1408478992852</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M26" t="n">
-        <v>1314.858658882597</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N26" t="n">
-        <v>1942.166326942443</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O26" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6256,22 +6256,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U26" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V26" t="n">
-        <v>2635.045976980643</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W26" t="n">
-        <v>2282.277321710528</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X26" t="n">
-        <v>1908.811563449448</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="Y26" t="n">
-        <v>1518.672231473637</v>
+        <v>1482.72286937982</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D27" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K27" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L27" t="n">
-        <v>886.4908637115414</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M27" t="n">
-        <v>1065.988200066146</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686615</v>
+        <v>1582.531622045753</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439338</v>
+        <v>2131.967630798476</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2555.935399279313</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>202.8175589519486</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="C28" t="n">
-        <v>202.8175589519486</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6417,19 +6417,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V28" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W28" t="n">
-        <v>763.4834245766374</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X28" t="n">
-        <v>535.49387367862</v>
+        <v>571.8924123023761</v>
       </c>
       <c r="Y28" t="n">
-        <v>314.7012945350899</v>
+        <v>571.8924123023761</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.872369741348</v>
+        <v>1677.338128002428</v>
       </c>
       <c r="C29" t="n">
-        <v>1303.872369741348</v>
+        <v>1308.375611062017</v>
       </c>
       <c r="D29" t="n">
-        <v>945.6066711345975</v>
+        <v>1308.375611062017</v>
       </c>
       <c r="E29" t="n">
-        <v>559.8184185363532</v>
+        <v>922.5873584637723</v>
       </c>
       <c r="F29" t="n">
-        <v>148.8325137467456</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G29" t="n">
-        <v>148.8325137467456</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
         <v>73.93516953299616</v>
@@ -6469,19 +6469,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L29" t="n">
-        <v>709.3115823537878</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M29" t="n">
-        <v>1341.029393337099</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N29" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O29" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P29" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6502,13 +6502,13 @@
         <v>2420.246115248354</v>
       </c>
       <c r="W29" t="n">
-        <v>2067.477459978239</v>
+        <v>2067.47745997824</v>
       </c>
       <c r="X29" t="n">
-        <v>1694.01170171716</v>
+        <v>2067.47745997824</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.872369741348</v>
+        <v>1677.338128002428</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K30" t="n">
-        <v>157.1026308627116</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L30" t="n">
-        <v>661.4641707288301</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.009520195935</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N30" t="n">
         <v>1954.183399498644</v>
@@ -6560,13 +6560,13 @@
         <v>2503.619408251367</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q30" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1778.98618542122</v>
+        <v>351.5293369619056</v>
       </c>
       <c r="C31" t="n">
-        <v>1778.98618542122</v>
+        <v>182.5931540339987</v>
       </c>
       <c r="D31" t="n">
-        <v>1778.98618542122</v>
+        <v>182.5931540339987</v>
       </c>
       <c r="E31" t="n">
-        <v>1778.98618542122</v>
+        <v>182.5931540339987</v>
       </c>
       <c r="F31" t="n">
-        <v>1778.98618542122</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L31" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M31" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N31" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O31" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P31" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>2409.416780293007</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>2409.416780293007</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V31" t="n">
-        <v>2409.416780293007</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W31" t="n">
-        <v>2409.416780293007</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X31" t="n">
-        <v>2181.42722939499</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="Y31" t="n">
-        <v>1960.63465025146</v>
+        <v>351.5293369619056</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>739.8865517075151</v>
+        <v>1542.762586069332</v>
       </c>
       <c r="C32" t="n">
-        <v>370.9240347671034</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9240347671034</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E32" t="n">
-        <v>370.9240347671034</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F32" t="n">
-        <v>370.9240347671034</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G32" t="n">
         <v>370.9240347671034</v>
@@ -6703,16 +6703,16 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K32" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L32" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M32" t="n">
-        <v>1341.029393337099</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N32" t="n">
-        <v>1968.337061396946</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O32" t="n">
         <v>2489.327531709521</v>
@@ -6730,22 +6730,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U32" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V32" t="n">
-        <v>1835.491524649934</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W32" t="n">
-        <v>1482.72286937982</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X32" t="n">
-        <v>1109.257111118741</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y32" t="n">
-        <v>739.8865517075151</v>
+        <v>1929.362426133453</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
         <v>52.70091953961286</v>
@@ -6794,10 +6794,10 @@
         <v>1725.692954831311</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.341267297829</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
@@ -6891,16 +6891,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>824.7921286804777</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>570.1076404745909</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W34" t="n">
-        <v>280.6904704376302</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X34" t="n">
-        <v>52.70091953961286</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y34" t="n">
         <v>52.70091953961286</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1484.84104667963</v>
+        <v>975.8573539063434</v>
       </c>
       <c r="C35" t="n">
-        <v>1115.878529739218</v>
+        <v>975.8573539063434</v>
       </c>
       <c r="D35" t="n">
-        <v>1115.878529739218</v>
+        <v>617.591655299593</v>
       </c>
       <c r="E35" t="n">
-        <v>730.0902771409737</v>
+        <v>617.591655299593</v>
       </c>
       <c r="F35" t="n">
-        <v>319.1043723513662</v>
+        <v>617.591655299593</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H35" t="n">
         <v>52.70091953961286</v>
@@ -6943,16 +6943,16 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.215540799241</v>
+        <v>809.5785249674218</v>
       </c>
       <c r="M35" t="n">
-        <v>1661.933351782553</v>
+        <v>996.2779377928294</v>
       </c>
       <c r="N35" t="n">
-        <v>1856.267564674535</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O35" t="n">
-        <v>2403.428769441613</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P35" t="n">
         <v>2600.061856959048</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W35" t="n">
-        <v>2635.045976980643</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="X35" t="n">
-        <v>2261.580218719563</v>
+        <v>1752.596525946277</v>
       </c>
       <c r="Y35" t="n">
-        <v>1871.440886743751</v>
+        <v>1362.457193970465</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L36" t="n">
-        <v>346.1860297752926</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M36" t="n">
         <v>986.7313792423972</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E37" t="n">
         <v>52.70091953961286</v>
@@ -7131,16 +7131,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>562.9106687201036</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W37" t="n">
-        <v>273.4934986831429</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X37" t="n">
-        <v>273.4934986831429</v>
+        <v>280.8093854727332</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.70091953961286</v>
+        <v>280.8093854727332</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1871.440886743751</v>
+        <v>917.2725296772267</v>
       </c>
       <c r="C38" t="n">
-        <v>1502.47836980334</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="D38" t="n">
-        <v>1502.47836980334</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E38" t="n">
-        <v>1116.690117205095</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F38" t="n">
-        <v>705.704212415488</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G38" t="n">
-        <v>288.6164306519154</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H38" t="n">
         <v>172.393890139502</v>
@@ -7174,22 +7174,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K38" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.215540799241</v>
+        <v>1060.133027349404</v>
       </c>
       <c r="M38" t="n">
-        <v>1429.251392960694</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N38" t="n">
-        <v>1623.585605852676</v>
+        <v>2319.158506392562</v>
       </c>
       <c r="O38" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
         <v>2600.061856959048</v>
@@ -7204,22 +7204,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U38" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V38" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W38" t="n">
-        <v>2635.045976980643</v>
+        <v>2067.47745997824</v>
       </c>
       <c r="X38" t="n">
-        <v>2261.580218719563</v>
+        <v>1694.01170171716</v>
       </c>
       <c r="Y38" t="n">
-        <v>1871.440886743751</v>
+        <v>1303.872369741348</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L39" t="n">
-        <v>519.3589218611166</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.904271328221</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.928743686616</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439339</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C40" t="n">
         <v>52.70091953961286</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U40" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V40" t="n">
-        <v>797.9511127930708</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W40" t="n">
-        <v>508.5339427561102</v>
+        <v>537.5892342743621</v>
       </c>
       <c r="X40" t="n">
-        <v>508.5339427561102</v>
+        <v>309.5996833763447</v>
       </c>
       <c r="Y40" t="n">
-        <v>403.2855672977595</v>
+        <v>88.80710423281462</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1753.764213259728</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="C41" t="n">
-        <v>1384.801696319317</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D41" t="n">
-        <v>1384.801696319317</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E41" t="n">
-        <v>999.0134437210725</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F41" t="n">
-        <v>588.0275389314648</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>170.9397571678923</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H41" t="n">
-        <v>170.9397571678923</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8866855817394</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>643.3537986017849</v>
+        <v>460.0580283728629</v>
       </c>
       <c r="L41" t="n">
-        <v>1101.819112847012</v>
+        <v>599.386684214116</v>
       </c>
       <c r="M41" t="n">
-        <v>1733.536923830324</v>
+        <v>786.0860970395237</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.871136722306</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>2098.040162039265</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P41" t="n">
-        <v>2527.35520837856</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2367.736544543714</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.339328400155</v>
+        <v>2014.967889273599</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.873570139075</v>
+        <v>2014.967889273599</v>
       </c>
       <c r="Y41" t="n">
-        <v>1798.734238163263</v>
+        <v>1624.828557297788</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>914.5278549835443</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C42" t="n">
-        <v>740.0748257024173</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D42" t="n">
-        <v>595.3761750425472</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E42" t="n">
-        <v>436.1387200370916</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F42" t="n">
-        <v>289.6041620639766</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>152.1627644231985</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H42" t="n">
-        <v>51.2467865680031</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>169.9060384248988</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>499.3344427307086</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>1003.695982596827</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1549.489049537425</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.14579119009</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.658103858851</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P42" t="n">
-        <v>2331.625872339687</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400155</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S42" t="n">
-        <v>2412.87253926279</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T42" t="n">
-        <v>2215.883243422878</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U42" t="n">
-        <v>1987.744455934043</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1752.592347702301</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W42" t="n">
-        <v>1498.354990974099</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X42" t="n">
-        <v>1290.503490768566</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y42" t="n">
-        <v>1082.743192003612</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.2467865680031</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C43" t="n">
-        <v>51.2467865680031</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K43" t="n">
-        <v>152.2947161636129</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L43" t="n">
-        <v>337.1277110644313</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M43" t="n">
-        <v>542.3973117836692</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N43" t="n">
-        <v>748.2206766197735</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O43" t="n">
-        <v>922.3155720083723</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P43" t="n">
-        <v>1047.763148606988</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q43" t="n">
-        <v>1051.181468027348</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>920.7035067467505</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>713.2632219991558</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>487.6340253115208</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U43" t="n">
-        <v>279.2363374660205</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V43" t="n">
-        <v>279.2363374660205</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W43" t="n">
-        <v>279.2363374660205</v>
+        <v>282.9047460684752</v>
       </c>
       <c r="X43" t="n">
-        <v>51.2467865680031</v>
+        <v>282.9047460684752</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.2467865680031</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1621.991392838317</v>
+        <v>1098.152250314266</v>
       </c>
       <c r="C44" t="n">
-        <v>1621.991392838317</v>
+        <v>729.1897333738539</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362822</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816079</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230816</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>1977.695380320764</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.92672505065</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X44" t="n">
-        <v>1621.991392838317</v>
+        <v>1484.752090378387</v>
       </c>
       <c r="Y44" t="n">
-        <v>1621.991392838317</v>
+        <v>1484.752090378387</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.14468917569</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182524</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057901</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>304.7087196946019</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L45" t="n">
-        <v>599.4122767260735</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.591260505112</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.77024428415</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.840679460312</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780096</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175226</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815395</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116707</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.2765195627319</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="C46" t="n">
-        <v>349.2765195627319</v>
+        <v>195.9454484299342</v>
       </c>
       <c r="D46" t="n">
-        <v>199.1598801503962</v>
+        <v>195.9454484299342</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>195.9454484299342</v>
       </c>
       <c r="F46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312196</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693233</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096585</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1123.088724245823</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999034</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171023</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1533.862713590079</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1533.862713590079</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T46" t="n">
-        <v>1533.862713590079</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U46" t="n">
-        <v>1523.808772677367</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V46" t="n">
-        <v>1269.12428447148</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="W46" t="n">
-        <v>979.7071144345191</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="X46" t="n">
-        <v>751.7175635365018</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="Y46" t="n">
-        <v>530.9249843929716</v>
+        <v>364.8816313578411</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>171.9589358120561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8385,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>98.93303561408928</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.49244923701559</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>73.09871788457488</v>
       </c>
       <c r="M12" t="n">
-        <v>73.77493716107526</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.50213796517538</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.49244923701507</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>56.94306717106298</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>72.85507260968029</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>54.42200251657027</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L17" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>30.21968338400228</v>
+        <v>145.7678996245036</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>96.12069185784512</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>306.1979795936944</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>182.6289329122087</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
-        <v>176.8008973295434</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5859288704241</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>30.21968338400274</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>167.963436331115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>56.94306717106359</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K30" t="n">
-        <v>37.16554713105222</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384286</v>
+        <v>230.7984289569025</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>354.3650959551675</v>
+        <v>30.21968338400274</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>306.1979795936948</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>20.72114122105302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,19 +10591,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>194.7955419930576</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>86.76642653324123</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>89.54312379457448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>184.4078422411151</v>
       </c>
       <c r="N36" t="n">
         <v>458.0981188384287</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>278.7842827623796</v>
       </c>
       <c r="M38" t="n">
-        <v>214.481251854591</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>73.09871788457551</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>306.6259639043175</v>
       </c>
       <c r="L41" t="n">
-        <v>322.3602610141147</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>369.9956874605992</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>378.0407240669651</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>86.76642653324137</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>6.454437538929938</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>249.3877325071649</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>197.5503993115741</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.0759032529857</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,13 +22840,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>228.4294634344598</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>52.86815981739136</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22916,13 +22916,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H8" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>52.92401236010693</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>217.7688074857156</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>142.6255493682615</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>94.15559079411074</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>114.6457227551668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.1525607327513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>141.0258987429009</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>97.05401257764794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>97.35123994129481</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>140.5936908961629</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>190.9062938619344</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>59.95550615191328</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -23554,16 +23554,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>72.66688054683263</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>94.15559079411074</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>132.0810204205735</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.6993282468288</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23703,7 +23703,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>31.43762041328873</v>
+        <v>15.58763460883478</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>147.9355399715003</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.380698103551097</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>84.76608085798539</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23913,7 +23913,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>76.0547082762923</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>181.4284129175677</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>317.2451504727982</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>96.48721104172704</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,10 +24147,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>120.0503770881556</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>202.1020932125217</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>205.7780666121259</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>30.40023243419354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24423,16 +24423,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>165.0546882240914</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>99.88494865930249</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>105.8982341571282</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24496,22 +24496,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.06708195462737</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24657,19 +24657,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>36.29689691601249</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>273.6462592279461</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>219.8706058101541</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>16.82773587348925</v>
       </c>
       <c r="G31" t="n">
-        <v>24.484635553647</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24897,13 +24897,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>20.56108483894036</v>
+        <v>364.604450504884</v>
       </c>
     </row>
     <row r="33">
@@ -25131,19 +25131,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>60.69561706280186</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.14262709106868</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>149.177485662301</v>
+        <v>168.7159596187721</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4385615547174</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>53.57061502585952</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>40.75994257459701</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>199.9805689679263</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>144.0868573356676</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25602,22 +25602,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.3887616483276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>338.2135170089809</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.651863114966</v>
@@ -25687,13 +25687,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>217.768807485715</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>4.19340141136729</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>79.94694369105173</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>139.2983381067335</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>366.8251217882592</v>
+        <v>62.58626725792413</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>3.608964421513122</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551289</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>276.2737526176152</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355334.8862817869</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355334.886281787</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358732.3883940965</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549252.2745108758</v>
+        <v>836519.6495866908</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549252.2745108758</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>823584.6212039224</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833348.2226253498</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94738.23953834557</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>94738.23953834559</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>95642.40428095899</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>160854.113738964</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="F2" t="n">
-        <v>160854.113738964</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="G2" t="n">
         <v>237303.5238233911</v>
@@ -26334,7 +26334,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="I2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="J2" t="n">
         <v>237303.5238233912</v>
@@ -26343,7 +26343,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="L2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="M2" t="n">
         <v>237303.5238233911</v>
@@ -26352,10 +26352,10 @@
         <v>237303.5238233912</v>
       </c>
       <c r="O2" t="n">
-        <v>233861.172289295</v>
+        <v>237303.523823391</v>
       </c>
       <c r="P2" t="n">
-        <v>244777.3043954468</v>
+        <v>237303.5238233912</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1412.837005503236</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>539786.4656448408</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110641.5683420766</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1151.132635482169</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>52570.38263440534</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92770.82914708578</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>226687.7256774152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35626.73890167465</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>35626.73890167465</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>35976.14446872375</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="E4" t="n">
-        <v>6590.838313831429</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>6590.838313831422</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="I4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511374</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511374</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
+        <v>36133.96051511374</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36133.96051511374</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36133.96051511373</v>
+      </c>
+      <c r="P4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36133.96051511373</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34803.69764036736</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7746.635554515848</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>28446.9699651066</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="F5" t="n">
-        <v>28446.9699651066</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26493,10 +26493,10 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
         <v>52990.47783747559</v>
@@ -26508,10 +26508,10 @@
         <v>52990.47783747559</v>
       </c>
       <c r="O5" t="n">
-        <v>51885.33677905217</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9811.733318308121</v>
+        <v>-58725.1768178185</v>
       </c>
       <c r="C6" t="n">
-        <v>23077.20091739103</v>
+        <v>22044.25471372924</v>
       </c>
       <c r="D6" t="n">
-        <v>21942.5867260749</v>
+        <v>22044.25471372922</v>
       </c>
       <c r="E6" t="n">
-        <v>-413970.1601848148</v>
+        <v>-459046.0930609638</v>
       </c>
       <c r="F6" t="n">
-        <v>125816.305460026</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="G6" t="n">
-        <v>37537.5171287252</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="H6" t="n">
-        <v>148179.0854708018</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="I6" t="n">
-        <v>148179.0854708019</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="J6" t="n">
-        <v>137822.201566998</v>
+        <v>79424.56886405044</v>
       </c>
       <c r="K6" t="n">
-        <v>148179.0854708017</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="L6" t="n">
-        <v>147027.9528353197</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="M6" t="n">
-        <v>95608.70283639643</v>
+        <v>38380.23689675379</v>
       </c>
       <c r="N6" t="n">
-        <v>148179.0854708018</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="O6" t="n">
-        <v>54401.30872278969</v>
+        <v>142484.5114631566</v>
       </c>
       <c r="P6" t="n">
-        <v>-48967.22927632892</v>
+        <v>142484.5114631567</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175391</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>255.0853779233023</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="F4" t="n">
-        <v>255.0853779233023</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26813,10 +26813,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
         <v>658.7614942451607</v>
@@ -26828,10 +26828,10 @@
         <v>658.7614942451607</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>340.588791779474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>403.6761163218583</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.54829541738809</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>385.4994541767363</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>403.6761163218583</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198249</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937401</v>
@@ -31767,28 +31767,28 @@
         <v>303.4869768779021</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N11" t="n">
         <v>425.710248335967</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P11" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T11" t="n">
         <v>10.44398644916534</v>
@@ -31837,19 +31837,19 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J12" t="n">
         <v>120.6044214847383</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L12" t="n">
         <v>277.1701353512822</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N12" t="n">
         <v>332.0050874900653</v>
@@ -31858,22 +31858,22 @@
         <v>303.7197925947077</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607457</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S12" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I13" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790241</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M13" t="n">
         <v>167.7591540676927</v>
@@ -31940,7 +31940,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R13" t="n">
         <v>48.12020970937817</v>
@@ -31949,10 +31949,10 @@
         <v>18.65071613685361</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U21" t="n">
         <v>0.08398246702897151</v>
@@ -32818,7 +32818,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U24" t="n">
         <v>0.08398246702897151</v>
@@ -33292,7 +33292,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U30" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336178</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979354</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491899</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857142</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767379</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730003</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342223</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166594</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190644</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147051</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235311</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745096</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.43766458389759</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.4038763438002</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436493</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177243</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405674</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.462496416876</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>124.741722762414</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997901</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000171</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>50.6538797233577</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682319</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067958</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154672</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169137</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523478</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069561</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>37.98452839772582</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705381</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292152</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012658</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5852654802096</v>
+        <v>287.518301094299</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>171.8879043605651</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.82994420832372</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>138.615755571408</v>
+        <v>211.7144734559829</v>
       </c>
       <c r="M12" t="n">
-        <v>255.0853779233023</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067319</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1235481502632</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.46874523989958</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>140.7360160012659</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.82994420832325</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>125.2337941037468</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>254.1655133719074</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>255.0853779233023</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
         <v>22.96660727472423</v>
@@ -35886,13 +35886,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L17" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
@@ -35901,7 +35901,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
         <v>35.33749497130819</v>
@@ -35971,16 +35971,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
         <v>22.96660727472423</v>
@@ -36132,13 +36132,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
-        <v>202.1075877445674</v>
+        <v>317.6558039850688</v>
       </c>
       <c r="P20" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
         <v>35.33749497130819</v>
@@ -36211,16 +36211,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>296.7840672645771</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502633</v>
+        <v>467.3215277439576</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K23" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>558.3972305517163</v>
+        <v>323.3649489134746</v>
       </c>
       <c r="M23" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O23" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q23" t="n">
         <v>35.33749497130819</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>245.0916242622273</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
@@ -36451,13 +36451,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>521.7094770206874</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K26" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
         <v>638.0987989730422</v>
@@ -36609,7 +36609,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>552.6880856233105</v>
+        <v>202.1075877445679</v>
       </c>
       <c r="P26" t="n">
         <v>111.8528537874005</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>368.626811737847</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36694,7 +36694,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>79.90967444578781</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M29" t="n">
         <v>638.0987989730422</v>
@@ -36846,7 +36846,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
         <v>111.8528537874005</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>105.4562740637361</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
         <v>509.4561008748672</v>
@@ -36922,7 +36922,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451606</v>
+        <v>431.4618043636345</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -37071,7 +37071,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
         <v>558.3972305517163</v>
@@ -37083,7 +37083,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>526.2530003157326</v>
+        <v>202.1075877445679</v>
       </c>
       <c r="P32" t="n">
         <v>111.8528537874005</v>
@@ -37162,13 +37162,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
-        <v>467.3215277439581</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>130.5086437738801</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>335.5315579943234</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>198.6192803206418</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
         <v>35.33749497130819</v>
@@ -37390,10 +37390,10 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
-        <v>228.1588793659825</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>365.7182830033422</v>
       </c>
       <c r="N36" t="n">
         <v>658.7614942451607</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517163</v>
+        <v>419.5202987636454</v>
       </c>
       <c r="M38" t="n">
-        <v>403.0665173348008</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
         <v>35.33749497130819</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>273.7620932913075</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>390.0230897372391</v>
       </c>
       <c r="L41" t="n">
-        <v>463.0962770153806</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
@@ -37867,19 +37867,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>551.3061282228263</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736972</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225036</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067507</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457276</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376314</v>
+        <v>283.0636112726175</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949726</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637948</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402556</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091739</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>193.0419337824147</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378501</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>640.5848321000387</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N45" t="n">
-        <v>640.5848321000387</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235322</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308545</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>173.424759342349</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860244</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.881755458054</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325556.3918026248</v>
+        <v>388611.9305032947</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3842442.348868396</v>
+        <v>5530772.757762744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10498891.9951863</v>
+        <v>12153624.62894364</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8698202.045674901</v>
+        <v>7792903.264408385</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>36.52847303402372</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>94.41048699370604</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.41950480310371</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>136.9142341349673</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.6792008748446</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0853779233023</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>74.90154072963819</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815132</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>154.7864033825332</v>
+        <v>39.79367426351445</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>163.7767477587485</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>73.95690544770612</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.900780601835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>119.8954700611085</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>270.9353637277562</v>
+        <v>3.733129376080719</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>18.6017415749748</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>113.1153427903392</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>82.48074024064245</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.579478589972922</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.99278818325541</v>
+        <v>51.18573352502936</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.216180791261342</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.278033746179418</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>210.8148107334151</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>151.1806851202506</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>122.1022459852816</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>87.08295509973661</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>282.8488930041781</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>115.153035343646</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>274.9358933657769</v>
       </c>
       <c r="X28" t="n">
-        <v>189.4127584730247</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>106.1625865997211</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>133.2297865137654</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>125.2966709805628</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>128.593312149442</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.6334881511696</v>
+        <v>235.1114325915431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>192.947095140322</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>198.5670282979685</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>244.2009443271647</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>286.3899491598896</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.39341862721993</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>263.2041962989415</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>324.5129491964105</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>73.33150690765585</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938903</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.74512284626974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>91.87120646840046</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>225.7109757765951</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>109.9834509844199</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>116.902239282742</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>79.28631524536129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>94.9353919266336</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>307.1448334205449</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>125.0087501558259</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>141.8120836014181</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E6" t="n">
-        <v>341.4439740098271</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F6" t="n">
-        <v>194.9094160367121</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G6" t="n">
-        <v>56.17859061932759</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>56.17859061932759</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6452713866835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.0940480307835</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.5415416409353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>344.5415416409353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>195.6071319796841</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>195.6071319796841</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>195.6071319796841</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.7568786610034</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1404.860064887974</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="C11" t="n">
-        <v>1404.860064887974</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="D11" t="n">
-        <v>1266.562858691037</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="E11" t="n">
-        <v>880.774606092793</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4022825530416</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L11" t="n">
-        <v>1030.215540799241</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M11" t="n">
-        <v>1314.858658882597</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N11" t="n">
-        <v>1942.166326942443</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>874.6230664220875</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>985.357391671614</v>
       </c>
       <c r="Q11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.830939477471</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.830939477471</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.830939477471</v>
+        <v>793.3928239408408</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.7680521339</v>
+        <v>793.3928239408408</v>
       </c>
       <c r="W11" t="n">
-        <v>1794.999396863786</v>
+        <v>793.3928239408408</v>
       </c>
       <c r="X11" t="n">
-        <v>1794.999396863786</v>
+        <v>793.3928239408408</v>
       </c>
       <c r="Y11" t="n">
-        <v>1404.860064887974</v>
+        <v>535.7308260385153</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662187</v>
+        <v>270.5179814641207</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850917</v>
+        <v>96.06495218299366</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>96.06495218299366</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454227</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L12" t="n">
-        <v>591.7266525668458</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M12" t="n">
-        <v>1232.27200203395</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686615</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439338</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>997.6045704912322</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.467288245464</v>
+        <v>870.8747225558438</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.477992405552</v>
+        <v>673.8854267159314</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>673.8854267159314</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.187096684975</v>
+        <v>438.7333184841887</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956773</v>
+        <v>438.7333184841887</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.09823975124</v>
+        <v>438.7333184841887</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>438.7333184841887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>199.5908670375232</v>
+        <v>501.6913040781469</v>
       </c>
       <c r="C13" t="n">
-        <v>199.5908670375232</v>
+        <v>501.6913040781469</v>
       </c>
       <c r="D13" t="n">
-        <v>199.5908670375232</v>
+        <v>501.6913040781469</v>
       </c>
       <c r="E13" t="n">
-        <v>199.5908670375232</v>
+        <v>353.7782104957538</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>206.8882629978434</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L13" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M13" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N13" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O13" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P13" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T13" t="n">
-        <v>827.0064043113226</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U13" t="n">
-        <v>827.0064043113226</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V13" t="n">
-        <v>670.6565019047234</v>
+        <v>980.1458811240026</v>
       </c>
       <c r="W13" t="n">
-        <v>381.2393318677629</v>
+        <v>722.483883221677</v>
       </c>
       <c r="X13" t="n">
-        <v>381.2393318677629</v>
+        <v>722.483883221677</v>
       </c>
       <c r="Y13" t="n">
-        <v>381.2393318677629</v>
+        <v>501.6913040781469</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1702.091767437537</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.129250497125</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="D14" t="n">
-        <v>1167.698192154955</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="E14" t="n">
-        <v>781.9099395567109</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="F14" t="n">
-        <v>370.9240347671034</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="G14" t="n">
-        <v>370.9240347671034</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J14" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K14" t="n">
-        <v>156.4983241075885</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L14" t="n">
-        <v>683.1408478992852</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M14" t="n">
-        <v>1314.858658882597</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N14" t="n">
-        <v>1942.166326942443</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O14" t="n">
-        <v>2489.327531709521</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959047</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.830939477471</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.830939477471</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="V14" t="n">
-        <v>2478.830939477471</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="W14" t="n">
-        <v>2478.830939477471</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.830939477471</v>
+        <v>610.4347709351881</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.691607501659</v>
+        <v>610.4347709351881</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>326.1788432124347</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>326.1788432124347</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238404</v>
+        <v>326.1788432124347</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183849</v>
+        <v>166.9413882069792</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452699</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>139.0660820907598</v>
       </c>
       <c r="K15" t="n">
-        <v>295.3416275592179</v>
+        <v>206.6739017541169</v>
       </c>
       <c r="L15" t="n">
-        <v>799.7031674253365</v>
+        <v>343.9034997698108</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.248516892441</v>
+        <v>530.745888642508</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.905258545106</v>
+        <v>729.4026302951727</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.341267297829</v>
+        <v>888.9149429639333</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>997.6045704912322</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.467288245464</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T15" t="n">
-        <v>2267.477992405552</v>
+        <v>823.3522158532967</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>823.3522158532967</v>
       </c>
       <c r="V15" t="n">
-        <v>1804.187096684975</v>
+        <v>702.2456804380356</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>702.2456804380356</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>494.3941802325027</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>494.3941802325027</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350.7306525343417</v>
+        <v>504.2241878313798</v>
       </c>
       <c r="C16" t="n">
-        <v>350.7306525343417</v>
+        <v>335.2880049034729</v>
       </c>
       <c r="D16" t="n">
-        <v>200.614013122006</v>
+        <v>185.1713654911372</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>185.1713654911372</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961285</v>
+        <v>38.2814179932268</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L16" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M16" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N16" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O16" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S16" t="n">
-        <v>845.195316251363</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T16" t="n">
-        <v>845.195316251363</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U16" t="n">
-        <v>845.195316251363</v>
+        <v>762.6795137908836</v>
       </c>
       <c r="V16" t="n">
-        <v>845.195316251363</v>
+        <v>507.9950255849967</v>
       </c>
       <c r="W16" t="n">
-        <v>571.5232316778719</v>
+        <v>504.2241878313798</v>
       </c>
       <c r="X16" t="n">
-        <v>571.5232316778719</v>
+        <v>504.2241878313798</v>
       </c>
       <c r="Y16" t="n">
-        <v>350.7306525343417</v>
+        <v>504.2241878313798</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1699.043895928971</v>
+        <v>2092.231099413349</v>
       </c>
       <c r="C17" t="n">
-        <v>1699.043895928971</v>
+        <v>1723.268582472937</v>
       </c>
       <c r="D17" t="n">
-        <v>1699.043895928971</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E17" t="n">
-        <v>1313.255643330727</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F17" t="n">
-        <v>902.2697385411195</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G17" t="n">
-        <v>485.181956777547</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H17" t="n">
-        <v>166.9588415500565</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5518,22 +5518,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>256.7652667212221</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>809.5785249674213</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M17" t="n">
-        <v>996.277937792829</v>
+        <v>1537.640273297155</v>
       </c>
       <c r="N17" t="n">
-        <v>1623.585605852676</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O17" t="n">
-        <v>2170.746810619753</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P17" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U17" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V17" t="n">
-        <v>2089.183227904783</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W17" t="n">
-        <v>2089.183227904783</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X17" t="n">
-        <v>2089.183227904783</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y17" t="n">
-        <v>1699.043895928971</v>
+        <v>2478.830939477471</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>282.9047460684752</v>
+        <v>62.3771605395855</v>
       </c>
       <c r="C19" t="n">
-        <v>199.5908670375232</v>
+        <v>62.3771605395855</v>
       </c>
       <c r="D19" t="n">
-        <v>199.5908670375232</v>
+        <v>62.3771605395855</v>
       </c>
       <c r="E19" t="n">
-        <v>199.5908670375232</v>
+        <v>62.3771605395855</v>
       </c>
       <c r="F19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U19" t="n">
-        <v>827.0064043113226</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V19" t="n">
-        <v>572.3219161054358</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W19" t="n">
-        <v>282.9047460684752</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X19" t="n">
-        <v>282.9047460684752</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.9047460684752</v>
+        <v>62.3771605395855</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1098.152250314266</v>
+        <v>1943.051672525278</v>
       </c>
       <c r="C20" t="n">
-        <v>729.1897333738539</v>
+        <v>1943.051672525278</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9240347671034</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E20" t="n">
-        <v>370.9240347671034</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F20" t="n">
-        <v>370.9240347671034</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G20" t="n">
         <v>370.9240347671034</v>
@@ -5755,22 +5755,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L20" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M20" t="n">
-        <v>1661.933351782553</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N20" t="n">
-        <v>1856.267564674535</v>
+        <v>1535.363606229082</v>
       </c>
       <c r="O20" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U20" t="n">
-        <v>2225.139236222622</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V20" t="n">
-        <v>1894.076348879051</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W20" t="n">
-        <v>1541.307693608937</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X20" t="n">
-        <v>1167.841935347857</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="Y20" t="n">
-        <v>1098.152250314266</v>
+        <v>2329.6515125894</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5837,13 +5837,13 @@
         <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>886.4908637115414</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M21" t="n">
-        <v>1527.036213178646</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.692954831311</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O21" t="n">
         <v>2188.341267297829</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.673451275196</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C22" t="n">
-        <v>221.7372683472891</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D22" t="n">
-        <v>221.7372683472891</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E22" t="n">
-        <v>73.82417476489601</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
-        <v>73.82417476489601</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>73.82417476489601</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>73.82417476489601</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J22" t="n">
         <v>52.70091953961285</v>
@@ -5940,22 +5940,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>827.0064043113226</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V22" t="n">
-        <v>572.3219161054358</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W22" t="n">
-        <v>572.3219161054358</v>
+        <v>757.1419763481733</v>
       </c>
       <c r="X22" t="n">
-        <v>572.3219161054358</v>
+        <v>529.152425450156</v>
       </c>
       <c r="Y22" t="n">
-        <v>572.3219161054358</v>
+        <v>529.152425450156</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1540.37799940018</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="C23" t="n">
-        <v>1540.37799940018</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.11230079343</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E23" t="n">
-        <v>796.3240481951855</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F23" t="n">
-        <v>385.3381434055779</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G23" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H23" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I23" t="n">
         <v>52.70091953961285</v>
@@ -5992,19 +5992,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K23" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L23" t="n">
-        <v>797.5335819773815</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M23" t="n">
-        <v>1429.251392960693</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N23" t="n">
-        <v>1623.585605852676</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O23" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P23" t="n">
         <v>2600.061856959047</v>
@@ -6016,25 +6016,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S23" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V23" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W23" t="n">
-        <v>2303.983089637072</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X23" t="n">
-        <v>1930.517331375992</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="Y23" t="n">
-        <v>1540.37799940018</v>
+        <v>1173.80006912892</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D24" t="n">
         <v>642.7351650238404</v>
@@ -6071,22 +6071,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L24" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M24" t="n">
-        <v>1265.215628536193</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N24" t="n">
-        <v>1463.872370188858</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6107,10 +6107,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.337940986287</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.6371024675198</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961285</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E25" t="n">
         <v>52.70091953961285</v>
@@ -6177,22 +6177,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>827.0064043113226</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="U25" t="n">
-        <v>827.0064043113226</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="V25" t="n">
-        <v>739.0438234024978</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="W25" t="n">
-        <v>449.6266533655371</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="X25" t="n">
-        <v>221.6371024675198</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.6371024675198</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1197.016916850348</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="C26" t="n">
-        <v>828.0543999099359</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="D26" t="n">
-        <v>469.7887013031854</v>
+        <v>965.7912742442788</v>
       </c>
       <c r="E26" t="n">
-        <v>469.7887013031854</v>
+        <v>580.0030216460345</v>
       </c>
       <c r="F26" t="n">
-        <v>469.7887013031854</v>
+        <v>169.017116856427</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961286</v>
+        <v>169.017116856427</v>
       </c>
       <c r="H26" t="n">
         <v>52.70091953961286</v>
@@ -6229,16 +6229,16 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K26" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L26" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M26" t="n">
-        <v>1661.933351782553</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N26" t="n">
-        <v>2289.241019842399</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O26" t="n">
         <v>2489.327531709521</v>
@@ -6256,22 +6256,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2166.554411993505</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V26" t="n">
-        <v>1835.491524649934</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W26" t="n">
-        <v>1482.72286937982</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X26" t="n">
-        <v>1482.72286937982</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y26" t="n">
-        <v>1482.72286937982</v>
+        <v>1324.056972851029</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K27" t="n">
-        <v>238.9679910598655</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L27" t="n">
-        <v>743.329530925984</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M27" t="n">
-        <v>1383.874880393089</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N27" t="n">
-        <v>1582.531622045753</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O27" t="n">
-        <v>2131.967630798476</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.935399279313</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980643</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.2439474721364</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C28" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
         <v>52.70091953961286</v>
@@ -6411,25 +6411,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W28" t="n">
-        <v>763.218430961997</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X28" t="n">
-        <v>571.8924123023761</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y28" t="n">
-        <v>571.8924123023761</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1677.338128002428</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="C29" t="n">
-        <v>1308.375611062017</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.375611062017</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E29" t="n">
-        <v>922.5873584637723</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F29" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G29" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H29" t="n">
         <v>52.70091953961286</v>
@@ -6469,13 +6469,13 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L29" t="n">
-        <v>683.1408478992856</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M29" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N29" t="n">
-        <v>1942.166326942444</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O29" t="n">
         <v>2489.327531709521</v>
@@ -6499,16 +6499,16 @@
         <v>2420.246115248354</v>
       </c>
       <c r="V29" t="n">
-        <v>2420.246115248354</v>
+        <v>2089.183227904784</v>
       </c>
       <c r="W29" t="n">
-        <v>2067.47745997824</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.47745997824</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.338128002428</v>
+        <v>1346.275240658858</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
         <v>52.70091953961286</v>
@@ -6554,10 +6554,10 @@
         <v>1527.036213178646</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.183399498644</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O30" t="n">
-        <v>2503.619408251367</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P30" t="n">
         <v>2612.309035778666</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.5293369619056</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="C31" t="n">
-        <v>182.5931540339987</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="D31" t="n">
-        <v>182.5931540339987</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="E31" t="n">
-        <v>182.5931540339987</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F31" t="n">
         <v>52.70091953961286</v>
@@ -6651,22 +6651,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>827.0064043113226</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V31" t="n">
-        <v>572.3219161054358</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W31" t="n">
-        <v>572.3219161054358</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X31" t="n">
-        <v>572.3219161054358</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.5293369619056</v>
+        <v>474.0662545396768</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.762586069332</v>
+        <v>1224.539470841841</v>
       </c>
       <c r="C32" t="n">
-        <v>1173.80006912892</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="D32" t="n">
-        <v>1173.80006912892</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E32" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F32" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H32" t="n">
         <v>52.70091953961286</v>
@@ -6709,13 +6709,13 @@
         <v>1030.215540799241</v>
       </c>
       <c r="M32" t="n">
-        <v>1661.933351782553</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N32" t="n">
-        <v>2289.241019842399</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O32" t="n">
-        <v>2489.327531709521</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P32" t="n">
         <v>2600.061856959048</v>
@@ -6730,22 +6730,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V32" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.214434366958</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X32" t="n">
-        <v>1951.214434366958</v>
+        <v>1462.025766388855</v>
       </c>
       <c r="Y32" t="n">
-        <v>1929.362426133453</v>
+        <v>1224.539470841841</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
         <v>52.70091953961286</v>
@@ -6788,16 +6788,16 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M33" t="n">
-        <v>1527.036213178646</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.692954831311</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O33" t="n">
-        <v>2275.128963584034</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D34" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E34" t="n">
         <v>52.70091953961286</v>
@@ -6891,19 +6891,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>763.4834245766374</v>
+        <v>857.7395453016627</v>
       </c>
       <c r="V34" t="n">
-        <v>763.4834245766374</v>
+        <v>603.0550570957759</v>
       </c>
       <c r="W34" t="n">
-        <v>474.0662545396768</v>
+        <v>603.0550570957759</v>
       </c>
       <c r="X34" t="n">
-        <v>273.4934986831429</v>
+        <v>603.0550570957759</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.70091953961286</v>
+        <v>382.2624779522457</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>975.8573539063434</v>
+        <v>1117.337176839117</v>
       </c>
       <c r="C35" t="n">
-        <v>975.8573539063434</v>
+        <v>1117.337176839117</v>
       </c>
       <c r="D35" t="n">
-        <v>617.591655299593</v>
+        <v>759.0714782323669</v>
       </c>
       <c r="E35" t="n">
-        <v>617.591655299593</v>
+        <v>759.0714782323669</v>
       </c>
       <c r="F35" t="n">
-        <v>617.591655299593</v>
+        <v>759.0714782323669</v>
       </c>
       <c r="G35" t="n">
-        <v>370.9240347671034</v>
+        <v>341.9836964687943</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>809.5785249674218</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M35" t="n">
-        <v>996.2779377928294</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N35" t="n">
-        <v>1623.585605852676</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O35" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6970,19 +6970,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.830939477471</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W35" t="n">
-        <v>2126.062284207357</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X35" t="n">
-        <v>1752.596525946277</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="Y35" t="n">
-        <v>1362.457193970465</v>
+        <v>1503.937016903239</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K36" t="n">
         <v>120.3087392029699</v>
@@ -7025,22 +7025,22 @@
         <v>624.6702790690885</v>
       </c>
       <c r="M36" t="n">
-        <v>986.7313792423972</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N36" t="n">
-        <v>1638.905258545106</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.341267297829</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778666</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.614013122006</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C37" t="n">
-        <v>200.614013122006</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D37" t="n">
-        <v>200.614013122006</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7131,16 +7131,16 @@
         <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>508.7989363707505</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W37" t="n">
-        <v>508.7989363707505</v>
+        <v>497.620600032252</v>
       </c>
       <c r="X37" t="n">
-        <v>280.8093854727332</v>
+        <v>497.620600032252</v>
       </c>
       <c r="Y37" t="n">
-        <v>280.8093854727332</v>
+        <v>497.620600032252</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>917.2725296772267</v>
+        <v>2088.691607501659</v>
       </c>
       <c r="C38" t="n">
-        <v>589.4816719030746</v>
+        <v>1719.729090561247</v>
       </c>
       <c r="D38" t="n">
-        <v>589.4816719030746</v>
+        <v>1361.463391954497</v>
       </c>
       <c r="E38" t="n">
-        <v>589.4816719030746</v>
+        <v>975.6751393562524</v>
       </c>
       <c r="F38" t="n">
-        <v>589.4816719030746</v>
+        <v>564.6892345666449</v>
       </c>
       <c r="G38" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H38" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
         <v>241.3408185533492</v>
@@ -7180,19 +7180,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>1060.133027349404</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M38" t="n">
-        <v>1691.850838332715</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N38" t="n">
-        <v>2319.158506392562</v>
+        <v>2011.628270704848</v>
       </c>
       <c r="O38" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V38" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W38" t="n">
-        <v>2067.47745997824</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X38" t="n">
-        <v>1694.01170171716</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y38" t="n">
-        <v>1303.872369741348</v>
+        <v>2088.691607501659</v>
       </c>
     </row>
     <row r="39">
@@ -7244,40 +7244,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K39" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L39" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M39" t="n">
-        <v>1265.215628536193</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N39" t="n">
-        <v>1917.389507838902</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O39" t="n">
-        <v>2466.825516591625</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.309035778666</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>314.4363009204495</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>145.5001179925426</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V40" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W40" t="n">
-        <v>537.5892342743621</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X40" t="n">
-        <v>309.5996833763447</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.80710423281462</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.828557297788</v>
+        <v>1108.765490715616</v>
       </c>
       <c r="C41" t="n">
-        <v>1624.828557297788</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D41" t="n">
-        <v>1266.562858691037</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E41" t="n">
         <v>880.774606092793</v>
@@ -7414,16 +7414,16 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>460.0580283728629</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L41" t="n">
-        <v>599.386684214116</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M41" t="n">
-        <v>786.0860970395237</v>
+        <v>803.4303512197024</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1430.738019279549</v>
       </c>
       <c r="O41" t="n">
         <v>1960.554969866448</v>
@@ -7444,19 +7444,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V41" t="n">
-        <v>2367.736544543714</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W41" t="n">
-        <v>2014.967889273599</v>
+        <v>1872.370580952508</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.967889273599</v>
+        <v>1498.904822691428</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.828557297788</v>
+        <v>1108.765490715616</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1065.988200066146</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.905258545106</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.341267297829</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P42" t="n">
         <v>2612.309035778666</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.8175589519486</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="C43" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D43" t="n">
         <v>52.70091953961286</v>
@@ -7596,25 +7596,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T43" t="n">
-        <v>827.0064043113226</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U43" t="n">
-        <v>827.0064043113226</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V43" t="n">
-        <v>572.3219161054358</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9047460684752</v>
+        <v>619.566119563728</v>
       </c>
       <c r="X43" t="n">
-        <v>282.9047460684752</v>
+        <v>391.5765686657106</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.8175589519486</v>
+        <v>170.7839895221805</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1098.152250314266</v>
+        <v>1362.457193970465</v>
       </c>
       <c r="C44" t="n">
-        <v>729.1897333738539</v>
+        <v>1362.457193970465</v>
       </c>
       <c r="D44" t="n">
-        <v>370.9240347671034</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E44" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F44" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G44" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
         <v>52.70091953961286</v>
@@ -7648,25 +7648,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M44" t="n">
-        <v>1661.933351782553</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N44" t="n">
-        <v>1942.166326942444</v>
+        <v>1610.188611289942</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>2157.349816057019</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959048</v>
+        <v>2586.664862396314</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7684,16 +7684,16 @@
         <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>2147.7680521339</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W44" t="n">
-        <v>1794.999396863786</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="X44" t="n">
-        <v>1484.752090378387</v>
+        <v>1752.596525946277</v>
       </c>
       <c r="Y44" t="n">
-        <v>1484.752090378387</v>
+        <v>1362.457193970465</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
         <v>642.7351650238404</v>
@@ -7718,10 +7718,10 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
         <v>52.70091953961286</v>
@@ -7730,28 +7730,28 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L45" t="n">
-        <v>886.4908637115414</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M45" t="n">
-        <v>1065.988200066146</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.905258545106</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.341267297829</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
         <v>2464.467288245464</v>
@@ -7766,10 +7766,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
         <v>1134.337940986287</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.8816313578411</v>
+        <v>326.8854779258705</v>
       </c>
       <c r="C46" t="n">
-        <v>195.9454484299342</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D46" t="n">
-        <v>195.9454484299342</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E46" t="n">
-        <v>195.9454484299342</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
         <v>52.70091953961286</v>
@@ -7833,25 +7833,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V46" t="n">
-        <v>364.8816313578411</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W46" t="n">
-        <v>364.8816313578411</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X46" t="n">
-        <v>364.8816313578411</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.8816313578411</v>
+        <v>508.5339427561102</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>98.93303561408928</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>60.49244923701505</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>73.09871788457488</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>127.2770751262505</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>391.2261292428723</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>60.49244923701507</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>56.94306717106298</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>7.419244967770112</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>101.2797400137713</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>323.9649693661685</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.7678996245036</v>
+        <v>257.5983215357635</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>283.176005620424</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>306.1979795936944</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>182.6289329122087</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5859288704241</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>30.21968338400274</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.94306717106359</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>391.2261292428727</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>230.7984289569025</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>230.7984289569022</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10357,16 +10357,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>30.21968338400274</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>98.9330356140897</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>378.0407240669651</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>20.72114122105302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>194.7955419930576</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>184.4078422411151</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>278.7842827623796</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>310.6366017047609</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>37.16554713105234</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>306.6259639043175</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>363.2807325958981</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>378.0407240669651</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569022</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>86.76642653324137</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>13.53231774013548</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,22 +11378,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>378.0407240669647</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>52.86815981739136</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,13 +22919,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22995,22 +22995,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.892250521429</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>52.92401236010693</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23184,19 +23184,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>217.7688074857156</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>151.7906678184092</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>26.47558534745602</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>82.74353972576276</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23439,7 +23439,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>97.35123994129481</v>
+        <v>212.3439690603136</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>190.9062938619344</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>307.9734646245557</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>59.95550615191328</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23551,7 +23551,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>112.9051170883168</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23676,7 +23676,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>31.17527673479472</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15.58763460883478</v>
+        <v>282.7898689605103</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>336.0813000457081</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.380698103551097</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>84.76608085798539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.8415694329583</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.2451504727982</v>
+        <v>335.0522051310242</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24147,10 +24147,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>120.0503770881556</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>280.2449645904116</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>202.1020932125217</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>218.5504155582184</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,19 +24417,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>101.2706587354771</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>165.0546882240914</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.88494865930249</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>199.8878487315696</v>
       </c>
       <c r="I26" t="n">
         <v>118.4960408938903</v>
@@ -24496,7 +24496,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24651,22 +24651,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>11.5871049708141</v>
       </c>
       <c r="X28" t="n">
-        <v>36.29689691601249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>276.5712550637595</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>273.6462592279461</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24739,7 +24739,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>41.95015011806504</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16.82773587348925</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24891,22 +24891,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
         <v>118.4960408938903</v>
@@ -24970,22 +24970,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>364.604450504884</v>
+        <v>151.1265060645105</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,16 +25131,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>93.31355951777499</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>27.14262709106868</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>168.7159596187721</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>28.65093491532593</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25210,16 +25210,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.4385615547174</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.9207765545704</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>23.3188020376495</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>40.75994257459701</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>339.5853970382809</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.0868573356676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>56.7442665498119</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,7 +25602,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>139.5619159944124</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>217.768807485715</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>50.34458181588587</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,7 +25836,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.2983381067335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>259.7476496940494</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25924,16 +25924,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>62.58626725792413</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>42.23807094280194</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.608964421513122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26073,10 +26073,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>286.260654658097</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940964</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836519.6495866908</v>
+        <v>549252.2745108757</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836519.6495866909</v>
+        <v>549252.2745108756</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866908</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095899</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095896</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.404280959</v>
       </c>
       <c r="E2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="F2" t="n">
+        <v>160854.113738964</v>
+      </c>
+      <c r="G2" t="n">
         <v>237303.5238233912</v>
-      </c>
-      <c r="G2" t="n">
-        <v>237303.5238233911</v>
       </c>
       <c r="H2" t="n">
         <v>237303.5238233911</v>
       </c>
       <c r="I2" t="n">
+        <v>237303.5238233912</v>
+      </c>
+      <c r="J2" t="n">
         <v>237303.5238233911</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>237303.5238233912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>237303.5238233911</v>
       </c>
       <c r="L2" t="n">
         <v>237303.5238233911</v>
@@ -26349,10 +26349,10 @@
         <v>237303.5238233911</v>
       </c>
       <c r="N2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="O2" t="n">
-        <v>237303.523823391</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="P2" t="n">
         <v>237303.5238233912</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>539786.465644841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110641.5683420766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>11546.91810999092</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>52570.38263440531</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>97145.06106897155</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872374</v>
       </c>
       <c r="E4" t="n">
-        <v>36133.96051511372</v>
+        <v>6590.838313831422</v>
       </c>
       <c r="F4" t="n">
-        <v>36133.96051511372</v>
+        <v>6590.838313831422</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511371</v>
@@ -26441,25 +26441,25 @@
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
+        <v>36133.96051511372</v>
+      </c>
+      <c r="P4" t="n">
         <v>36133.96051511373</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26502,10 +26502,10 @@
         <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
         <v>52990.47783747559</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58725.1768178185</v>
+        <v>7110.878329429212</v>
       </c>
       <c r="C6" t="n">
-        <v>22044.25471372924</v>
+        <v>21900.5843336734</v>
       </c>
       <c r="D6" t="n">
-        <v>22044.25471372922</v>
+        <v>21900.58433367345</v>
       </c>
       <c r="E6" t="n">
-        <v>-459046.0930609638</v>
+        <v>-415017.4263986072</v>
       </c>
       <c r="F6" t="n">
-        <v>142484.5114631567</v>
+        <v>124769.0392462338</v>
       </c>
       <c r="G6" t="n">
-        <v>142484.5114631567</v>
+        <v>36968.05972796078</v>
       </c>
       <c r="H6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700372</v>
       </c>
       <c r="I6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="J6" t="n">
-        <v>79424.56886405044</v>
+        <v>136062.7099600463</v>
       </c>
       <c r="K6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="L6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="M6" t="n">
-        <v>38380.23689675379</v>
+        <v>95039.24543563199</v>
       </c>
       <c r="N6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="O6" t="n">
-        <v>142484.5114631566</v>
+        <v>50464.56700106568</v>
       </c>
       <c r="P6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26822,10 +26822,10 @@
         <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
         <v>658.7614942451607</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>44.13217237922871</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440736</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218584</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
         <v>0.08398246702897151</v>
@@ -32818,7 +32818,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U24" t="n">
         <v>0.08398246702897151</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
-        <v>287.518301094299</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>232.3803535975802</v>
       </c>
       <c r="P11" t="n">
         <v>111.8528537874005</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7144734559829</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>237.0645776790776</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>531.9621452441381</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>95.82994420832325</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>125.2337941037468</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>188.7296857299972</v>
       </c>
       <c r="N15" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
         <v>22.96660727472423</v>
@@ -35886,25 +35886,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
-        <v>184.6768658466929</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5852654802098</v>
+        <v>512.5502348463782</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517163</v>
@@ -36135,13 +36135,13 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
-        <v>317.6558039850688</v>
+        <v>429.4862258963287</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>421.7917611918321</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
@@ -36214,7 +36214,7 @@
         <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>467.3215277439576</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
@@ -36360,22 +36360,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K23" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L23" t="n">
-        <v>323.3649489134746</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q23" t="n">
         <v>35.33749497130819</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7094770206874</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K26" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L26" t="n">
         <v>558.3972305517163</v>
@@ -36609,7 +36609,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>202.1075877445679</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P26" t="n">
         <v>111.8528537874005</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>68.29072693268387</v>
@@ -36685,16 +36685,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.90967444578781</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
-        <v>531.9621452441386</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
         <v>638.0987989730422</v>
@@ -36846,7 +36846,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P29" t="n">
         <v>111.8528537874005</v>
@@ -36922,13 +36922,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>431.4618043636345</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>109.7875025528271</v>
+        <v>340.5859315097293</v>
       </c>
       <c r="Q30" t="n">
         <v>22.96660727472423</v>
@@ -37077,16 +37077,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>202.1075877445679</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>111.8528537874005</v>
+        <v>210.7858894014902</v>
       </c>
       <c r="Q32" t="n">
         <v>35.33749497130819</v>
@@ -37156,19 +37156,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736972</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>130.5086437738801</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>335.5315579943234</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
         <v>35.33749497130819</v>
@@ -37393,16 +37393,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>365.7182830033422</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q36" t="n">
         <v>22.96660727472423</v>
@@ -37548,16 +37548,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>419.5202987636454</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>171.8879043605652</v>
+        <v>482.524506065326</v>
       </c>
       <c r="P38" t="n">
         <v>111.8528537874005</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
@@ -37633,13 +37633,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>146.9530496838794</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472423</v>
@@ -37782,7 +37782,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>390.0230897372391</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
         <v>140.7360160012659</v>
@@ -37794,7 +37794,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233105</v>
+        <v>535.1686369564633</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588832</v>
@@ -37867,16 +37867,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>578.7040994736972</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097293</v>
       </c>
       <c r="Q42" t="n">
         <v>22.96660727472423</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M44" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>283.0636112726175</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.33749497130819</v>
+        <v>48.86981271144366</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>578.7040994736967</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q45" t="n">
         <v>22.96660727472423</v>
